--- a/airbnb/Project-H.xlsx
+++ b/airbnb/Project-H.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,15 +474,25 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>preview_tags</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>price_string</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -491,21 +501,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>龙大生活体验馆 （五居可加房，佘山欢乐谷广富林泰晤士，麻将烧烤，虹桥会展，轰趴，9号线松江大学城站）</t>
+          <t>【温馨小墅】广富林遗址公园泰晤士小镇辰山植物园欢乐谷玛雅佘山国家森林公园月湖精致温馨联排别墅</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>厨房、空调、洗衣机</t>
@@ -522,44 +532,50 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.83</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4.9分 · 42条评论 超赞房东 安心住 自助入住 可以做饭</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>￥1,680</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.06054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>121.20683</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.airbnb.cn/rooms/22416840</t>
+          <t>5.0分 · 27条评论 超赞房东 自助入住 可以做饭 暖心房东</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>￥792</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/39768863</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>上海松江佘山脚下绿色温馨屋</t>
+          <t>龙大欢乐宅 （三居，佘山欢乐谷辰山广富林泰晤士近在咫尺，9号线松江大学城站步行可达，虹桥会展便利）</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -577,44 +593,50 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4.78</v>
+        <v>4.97</v>
       </c>
       <c r="J3" t="n">
-        <v>41</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4.8分 · 41条评论 自助入住 可以做饭</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>￥1,388</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.06656</v>
+      </c>
+      <c r="L3" t="n">
+        <v>121.21987</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.airbnb.cn/rooms/13884575</t>
+          <t>5.0分 · 29条评论 超赞房东 安心住 自助入住 可以做饭</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>￥1,280</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/27838611</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>啪啪派别墅派对轰趴馆（松江佘山总店）</t>
+          <t>上海松江佘山脚下绿色温馨屋</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -632,44 +654,50 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4.92</v>
+        <v>4.78</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4.9分 · 50条评论 超赞房东 可开发票 可以做饭</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>￥1,544</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.09418</v>
+      </c>
+      <c r="L4" t="n">
+        <v>121.176</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.airbnb.cn/rooms/32951206</t>
+          <t>4.8分 · 41条评论 自助入住 可以做饭</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>￥1,388</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/13884575</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>【聚一家】大投影松江蓝精灵乐园&amp;深坑秘境附近聚会轰趴团建别墅</t>
+          <t>龙大泊寓（双套卧自带卫生间，佘山欢乐谷辰山广富林泰晤士旁，9号线松江大学城站步行可达，虹桥会展便利）</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -678,7 +706,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>整套联排别墅</t>
+          <t>整套房子</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -687,134 +715,30 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4.91</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>46</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>4.9分 · 46条评论 超赞房东 安心住 灵活退改 可开发票 自助入住 可以做饭</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>￥1,599</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.06725</v>
+      </c>
+      <c r="L5" t="n">
+        <v>121.22084</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.airbnb.cn/rooms/29017865</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>英伦假日 上海泰晤士小镇联排别墅整套景观房源，近欢乐谷/大学城/广富林/佘山</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>厨房、空调、洗衣机</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>整套联排别墅</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>整套房子/公寓</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>27</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>4.7分 · 27条评论 超赞房东 自助入住 可以做饭 暖心房东</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>￥1,519</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.cn/rooms/19459795</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Best Retreat NECC Qingpu getaways 奥莱国展中心虹桥地暖壁炉欢乐谷</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>厨房、空调、洗衣机</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>整栋别墅</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>整套房子/公寓</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>4.7分 · 32条评论 超赞房东 自助入住 可以做饭</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>￥1,980</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.cn/rooms/36298629</t>
+          <t>5.0分 · 12条评论 超赞房东 安心住 自助入住 可以做饭</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>￥1,080</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/23831628</t>
         </is>
       </c>
     </row>

--- a/airbnb/Project-H.xlsx
+++ b/airbnb/Project-H.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
         <v>31.06054</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5.0分 · 27条评论 超赞房东 自助入住 可以做饭 暖心房东</t>
+          <t>5.0分 · 28条评论 超赞房东 自助入住 可以做饭 暖心房东</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -623,20 +623,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>上海松江佘山脚下绿色温馨屋</t>
+          <t>龙大生活体验馆 （五居可加房，佘山欢乐谷广富林泰晤士，麻将烧烤，虹桥会展，轰趴，9号线松江大学城站）</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -654,91 +654,152 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4.78</v>
+        <v>4.83</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" t="n">
-        <v>31.09418</v>
+        <v>31.06636</v>
       </c>
       <c r="L4" t="n">
-        <v>121.176</v>
+        <v>121.22018</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.8分 · 41条评论 自助入住 可以做饭</t>
+          <t>4.9分 · 42条评论 超赞房东 安心住 自助入住 可以做饭</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>￥1,388</t>
+          <t>￥1,680</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://www.airbnb.cn/rooms/13884575</t>
+          <t>https://www.airbnb.cn/rooms/22416840</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>龙大泊寓（双套卧自带卫生间，佘山欢乐谷辰山广富林泰晤士旁，9号线松江大学城站步行可达，虹桥会展便利）</t>
+          <t>上海松江佘山脚下绿色温馨屋</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>厨房、空调、洗衣机</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>整套联排别墅</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>整套房子/公寓</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.09418</v>
+      </c>
+      <c r="L5" t="n">
+        <v>121.176</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4.8分 · 41条评论 自助入住 可以做饭</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>￥1,388</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/13884575</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>啪啪派别墅派对轰趴馆（松江佘山总店）</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>厨房、空调、洗衣机</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>整套房子</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>整套联排别墅</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>整套房子/公寓</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>31.06725</v>
-      </c>
-      <c r="L5" t="n">
-        <v>121.22084</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>5.0分 · 12条评论 超赞房东 安心住 自助入住 可以做饭</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>￥1,080</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.cn/rooms/23831628</t>
+      <c r="I6" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.06336</v>
+      </c>
+      <c r="L6" t="n">
+        <v>121.1606</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.9分 · 50条评论 超赞房东 可以做饭</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>￥1,881</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.cn/rooms/32951206</t>
         </is>
       </c>
     </row>
